--- a/Dairy value stream map.xlsx
+++ b/Dairy value stream map.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RoboCop\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E1C6D75C-76FB-4579-9EA0-D3333CB4FFF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9221DCD4-566E-4AE3-A88D-CAE2159A03DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{5F8D529A-F651-4D14-980A-41989DEAE541}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{5F8D529A-F651-4D14-980A-41989DEAE541}"/>
   </bookViews>
   <sheets>
     <sheet name="Value Stream" sheetId="1" r:id="rId1"/>
-    <sheet name="Suply Chain" sheetId="2" r:id="rId2"/>
+    <sheet name="Supply Chain" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,13 +38,19 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Brush Script MT"/>
+      <family val="4"/>
     </font>
   </fonts>
   <fills count="2">
@@ -67,8 +73,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4251,8 +4258,3526 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>281940</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB503601-F570-51EA-52D2-C857FBCCEF1B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="281940" y="358140"/>
+          <a:ext cx="899160" cy="563880"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Carolina Produce</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>281940</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E1DE1D5-C4BC-499F-A565-68D7D070C2BA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="281940" y="1005840"/>
+          <a:ext cx="899160" cy="586740"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Pucket </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Equipment</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>274320</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="TextBox 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5588E6DF-F93E-45CE-ABA2-B3E912784224}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="274320" y="1699260"/>
+          <a:ext cx="906780" cy="563880"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Conway Feed &amp; Supply </a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>289560</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="TextBox 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC1322FF-38F8-4C99-BEAA-31F097C070F2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="289560" y="2750820"/>
+          <a:ext cx="891540" cy="640080"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Phillips Vetenary</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Service</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>289560</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="TextBox 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C46A307-3B48-44C2-A868-0CFFA2029171}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="289560" y="3505200"/>
+          <a:ext cx="891540" cy="563880"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Sam's Turf &amp; Horticulture</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>297180</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="TextBox 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED65537D-19CE-4FC3-9E6A-C4995836D286}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="297180" y="4160520"/>
+          <a:ext cx="883920" cy="563880"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Tractor Supply Co.</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>510540</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>205740</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Graphic 10" descr="Silo outline">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C33CB4D-57A1-A453-4FF7-274FA2863E1F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:alphaModFix amt="98000"/>
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2339340" y="891540"/>
+          <a:ext cx="914400" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:effectLst>
+          <a:glow>
+            <a:schemeClr val="accent1">
+              <a:alpha val="42000"/>
+            </a:schemeClr>
+          </a:glow>
+          <a:outerShdw blurRad="63500" dist="50800" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:schemeClr val="tx2">
+              <a:lumMod val="40000"/>
+              <a:lumOff val="60000"/>
+            </a:schemeClr>
+          </a:outerShdw>
+          <a:reflection stA="46000" endPos="3000" dist="50800" dir="5400000" sy="-100000" algn="bl" rotWithShape="0"/>
+        </a:effectLst>
+        <a:scene3d>
+          <a:camera prst="orthographicFront">
+            <a:rot lat="1800000" lon="0" rev="0"/>
+          </a:camera>
+          <a:lightRig rig="chilly" dir="t"/>
+        </a:scene3d>
+        <a:sp3d>
+          <a:bevelT w="0" h="0"/>
+          <a:bevelB w="0"/>
+          <a:extrusionClr>
+            <a:schemeClr val="tx1"/>
+          </a:extrusionClr>
+          <a:contourClr>
+            <a:schemeClr val="bg2">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:contourClr>
+        </a:sp3d>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Graphic 11" descr="Silo outline">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72F18AD6-887D-47C2-B8F9-1318B83F3839}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:alphaModFix amt="98000"/>
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2324100" y="3208020"/>
+          <a:ext cx="914400" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:effectLst>
+          <a:glow>
+            <a:schemeClr val="accent1">
+              <a:alpha val="42000"/>
+            </a:schemeClr>
+          </a:glow>
+          <a:outerShdw blurRad="63500" dist="50800" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:schemeClr val="tx2">
+              <a:lumMod val="40000"/>
+              <a:lumOff val="60000"/>
+            </a:schemeClr>
+          </a:outerShdw>
+          <a:reflection stA="46000" endPos="3000" dist="50800" dir="5400000" sy="-100000" algn="bl" rotWithShape="0"/>
+        </a:effectLst>
+        <a:scene3d>
+          <a:camera prst="orthographicFront">
+            <a:rot lat="1800000" lon="0" rev="0"/>
+          </a:camera>
+          <a:lightRig rig="chilly" dir="t"/>
+        </a:scene3d>
+        <a:sp3d>
+          <a:bevelT w="0" h="0"/>
+          <a:bevelB w="0"/>
+          <a:extrusionClr>
+            <a:schemeClr val="tx1"/>
+          </a:extrusionClr>
+          <a:contourClr>
+            <a:schemeClr val="bg2">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:contourClr>
+        </a:sp3d>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>563880</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Graphic 13" descr="Crops outline">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9F63956-AB8D-C574-A505-D1905F4847E5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:alphaModFix amt="98000"/>
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3002280" y="3512820"/>
+          <a:ext cx="655320" cy="655320"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:effectLst>
+          <a:glow>
+            <a:schemeClr val="accent1">
+              <a:alpha val="42000"/>
+            </a:schemeClr>
+          </a:glow>
+          <a:outerShdw blurRad="63500" dist="50800" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:schemeClr val="tx2">
+              <a:lumMod val="40000"/>
+              <a:lumOff val="60000"/>
+            </a:schemeClr>
+          </a:outerShdw>
+          <a:reflection stA="46000" endPos="3000" dist="50800" dir="5400000" sy="-100000" algn="bl" rotWithShape="0"/>
+        </a:effectLst>
+        <a:scene3d>
+          <a:camera prst="orthographicFront">
+            <a:rot lat="1800000" lon="0" rev="0"/>
+          </a:camera>
+          <a:lightRig rig="chilly" dir="t"/>
+        </a:scene3d>
+        <a:sp3d>
+          <a:bevelT w="0" h="0"/>
+          <a:bevelB w="0"/>
+          <a:extrusionClr>
+            <a:schemeClr val="tx1"/>
+          </a:extrusionClr>
+          <a:contourClr>
+            <a:schemeClr val="bg2">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:contourClr>
+        </a:sp3d>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>594360</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Graphic 14" descr="Crops outline">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{960AB0AF-00DC-4570-80F7-A07D7BC2BB59}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:alphaModFix amt="98000"/>
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId6"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3032760" y="1188720"/>
+          <a:ext cx="670560" cy="670560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:effectLst>
+          <a:glow>
+            <a:schemeClr val="accent1">
+              <a:alpha val="42000"/>
+            </a:schemeClr>
+          </a:glow>
+          <a:outerShdw blurRad="63500" dist="50800" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:schemeClr val="tx2">
+              <a:lumMod val="40000"/>
+              <a:lumOff val="60000"/>
+            </a:schemeClr>
+          </a:outerShdw>
+          <a:reflection stA="46000" endPos="3000" dist="50800" dir="5400000" sy="-100000" algn="bl" rotWithShape="0"/>
+        </a:effectLst>
+        <a:scene3d>
+          <a:camera prst="orthographicFront">
+            <a:rot lat="1800000" lon="0" rev="0"/>
+          </a:camera>
+          <a:lightRig rig="chilly" dir="t"/>
+        </a:scene3d>
+        <a:sp3d>
+          <a:bevelT w="0" h="0"/>
+          <a:bevelB w="0"/>
+          <a:extrusionClr>
+            <a:schemeClr val="tx1"/>
+          </a:extrusionClr>
+          <a:contourClr>
+            <a:schemeClr val="bg2">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:contourClr>
+        </a:sp3d>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>167640</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>213360</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>104140</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="30" name="Picture 29" descr="Stick figure families holding hands">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59787F2C-6E91-3DD9-D435-412F3A213146}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
+          <a:alphaModFix amt="95000"/>
+          <a:extLst>
+            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a14:imgLayer r:embed="rId8">
+                  <a14:imgEffect>
+                    <a14:artisticPaintStrokes/>
+                  </a14:imgEffect>
+                  <a14:imgEffect>
+                    <a14:colorTemperature colorTemp="3000"/>
+                  </a14:imgEffect>
+                  <a14:imgEffect>
+                    <a14:saturation sat="16000"/>
+                  </a14:imgEffect>
+                  <a14:imgEffect>
+                    <a14:brightnessContrast bright="14000" contrast="17000"/>
+                  </a14:imgEffect>
+                </a14:imgLayer>
+              </a14:imgProps>
+            </a:ext>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="4464" r="4464"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12359640" y="175260"/>
+          <a:ext cx="1264920" cy="843280"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:effectLst>
+          <a:glow>
+            <a:schemeClr val="accent1">
+              <a:alpha val="40000"/>
+            </a:schemeClr>
+          </a:glow>
+          <a:reflection stA="45000" endPos="0" dist="50800" dir="5400000" sy="-100000" algn="bl" rotWithShape="0"/>
+          <a:softEdge rad="139700"/>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>167640</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>213360</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>104140</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="31" name="Picture 30" descr="Stick figure families holding hands">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B34D8D9-0F3A-42AF-B827-B9D2351BE8B8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
+          <a:alphaModFix amt="95000"/>
+          <a:extLst>
+            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a14:imgLayer r:embed="rId8">
+                  <a14:imgEffect>
+                    <a14:artisticPaintStrokes/>
+                  </a14:imgEffect>
+                  <a14:imgEffect>
+                    <a14:colorTemperature colorTemp="3000"/>
+                  </a14:imgEffect>
+                  <a14:imgEffect>
+                    <a14:saturation sat="16000"/>
+                  </a14:imgEffect>
+                  <a14:imgEffect>
+                    <a14:brightnessContrast bright="14000" contrast="17000"/>
+                  </a14:imgEffect>
+                </a14:imgLayer>
+              </a14:imgProps>
+            </a:ext>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="4464" r="4464"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12359640" y="1272540"/>
+          <a:ext cx="1264920" cy="843280"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:effectLst>
+          <a:glow>
+            <a:schemeClr val="accent1">
+              <a:alpha val="40000"/>
+            </a:schemeClr>
+          </a:glow>
+          <a:reflection stA="45000" endPos="0" dist="50800" dir="5400000" sy="-100000" algn="bl" rotWithShape="0"/>
+          <a:softEdge rad="139700"/>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>167640</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>213360</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="32" name="Picture 31" descr="Stick figure families holding hands">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B41D2377-E060-4331-80C4-2A376FC01172}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
+          <a:alphaModFix amt="95000"/>
+          <a:extLst>
+            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a14:imgLayer r:embed="rId8">
+                  <a14:imgEffect>
+                    <a14:artisticPaintStrokes/>
+                  </a14:imgEffect>
+                  <a14:imgEffect>
+                    <a14:colorTemperature colorTemp="3000"/>
+                  </a14:imgEffect>
+                  <a14:imgEffect>
+                    <a14:saturation sat="16000"/>
+                  </a14:imgEffect>
+                  <a14:imgEffect>
+                    <a14:brightnessContrast bright="14000" contrast="17000"/>
+                  </a14:imgEffect>
+                </a14:imgLayer>
+              </a14:imgProps>
+            </a:ext>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="4464" r="4464"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12359640" y="3962400"/>
+          <a:ext cx="1264920" cy="843280"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:effectLst>
+          <a:glow>
+            <a:schemeClr val="accent1">
+              <a:alpha val="40000"/>
+            </a:schemeClr>
+          </a:glow>
+          <a:reflection stA="45000" endPos="0" dist="50800" dir="5400000" sy="-100000" algn="bl" rotWithShape="0"/>
+          <a:softEdge rad="139700"/>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>167640</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>213360</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>27940</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="33" name="Picture 32" descr="Stick figure families holding hands">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{031D7B4F-3897-4A52-A0CA-3726F6A3E406}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
+          <a:alphaModFix amt="95000"/>
+          <a:extLst>
+            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a14:imgLayer r:embed="rId8">
+                  <a14:imgEffect>
+                    <a14:artisticPaintStrokes/>
+                  </a14:imgEffect>
+                  <a14:imgEffect>
+                    <a14:colorTemperature colorTemp="3000"/>
+                  </a14:imgEffect>
+                  <a14:imgEffect>
+                    <a14:saturation sat="16000"/>
+                  </a14:imgEffect>
+                  <a14:imgEffect>
+                    <a14:brightnessContrast bright="14000" contrast="17000"/>
+                  </a14:imgEffect>
+                </a14:imgLayer>
+              </a14:imgProps>
+            </a:ext>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="4464" r="4464"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12359640" y="2659380"/>
+          <a:ext cx="1264920" cy="843280"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:effectLst>
+          <a:glow>
+            <a:schemeClr val="accent1">
+              <a:alpha val="40000"/>
+            </a:schemeClr>
+          </a:glow>
+          <a:reflection stA="45000" endPos="0" dist="50800" dir="5400000" sy="-100000" algn="bl" rotWithShape="0"/>
+          <a:softEdge rad="139700"/>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>69985</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="35" name="Picture 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A8204DC-8243-945F-B9D5-6BDFC5D68A09}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4724400" y="769620"/>
+          <a:ext cx="1295400" cy="946285"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>563880</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>62365</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="36" name="Picture 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4D84EBE-EDDF-4978-8032-C21FF6999DDB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4831080" y="3147060"/>
+          <a:ext cx="1295400" cy="946285"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>198119</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>240748</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="38" name="Picture 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61A95975-0AF1-2979-B1AB-162142D88871}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
+          <a:alphaModFix/>
+          <a:extLst>
+            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a14:imgLayer r:embed="rId11">
+                  <a14:imgEffect>
+                    <a14:sharpenSoften amount="90000"/>
+                  </a14:imgEffect>
+                  <a14:imgEffect>
+                    <a14:brightnessContrast bright="-14000" contrast="49000"/>
+                  </a14:imgEffect>
+                </a14:imgLayer>
+              </a14:imgProps>
+            </a:ext>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9342119" y="388620"/>
+          <a:ext cx="1871429" cy="1744980"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:effectLst>
+          <a:softEdge rad="254000"/>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>198119</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>240748</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="39" name="Picture 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACB7E0E4-CFAC-4057-B2B4-D80B6042ABC1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
+          <a:alphaModFix/>
+          <a:extLst>
+            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a14:imgLayer r:embed="rId11">
+                  <a14:imgEffect>
+                    <a14:sharpenSoften amount="90000"/>
+                  </a14:imgEffect>
+                  <a14:imgEffect>
+                    <a14:brightnessContrast bright="-14000" contrast="49000"/>
+                  </a14:imgEffect>
+                </a14:imgLayer>
+              </a14:imgProps>
+            </a:ext>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9342119" y="2758440"/>
+          <a:ext cx="1871429" cy="1744980"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:effectLst>
+          <a:softEdge rad="254000"/>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>411481</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>30481</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>358140</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>181571</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="41" name="Picture 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A84D4029-4F98-67C0-42E8-42803780B196}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7117081" y="1676401"/>
+          <a:ext cx="1775459" cy="1248370"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>449580</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="43" name="Straight Arrow Connector 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11FA3FE7-5191-05F9-D5FE-712F05D19478}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1333500" y="655320"/>
+          <a:ext cx="944880" cy="312420"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="53975" cap="sq" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="accent3">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+          <a:headEnd type="none"/>
+          <a:tailEnd type="stealth"/>
+        </a:ln>
+        <a:effectLst>
+          <a:glow rad="50800">
+            <a:schemeClr val="accent3">
+              <a:lumMod val="75000"/>
+              <a:alpha val="25000"/>
+            </a:schemeClr>
+          </a:glow>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>510540</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="45" name="Straight Arrow Connector 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C281B04-EE59-4D72-AEA0-C2BD961EDEC5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="11" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1371600" y="1325880"/>
+          <a:ext cx="967740" cy="22860"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="53975" cap="sq" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="accent3">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+          <a:headEnd type="none"/>
+          <a:tailEnd type="stealth"/>
+        </a:ln>
+        <a:effectLst>
+          <a:glow rad="50800">
+            <a:schemeClr val="accent3">
+              <a:lumMod val="75000"/>
+              <a:alpha val="25000"/>
+            </a:schemeClr>
+          </a:glow>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>144780</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>449580</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="46" name="Straight Arrow Connector 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43C9EB8C-4F9F-4364-9CED-1FCB2E35AF88}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1363980" y="1729740"/>
+          <a:ext cx="914400" cy="243840"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="53975" cap="sq" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="accent3">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+          <a:headEnd type="none"/>
+          <a:tailEnd type="stealth"/>
+        </a:ln>
+        <a:effectLst>
+          <a:glow rad="50800">
+            <a:schemeClr val="accent3">
+              <a:lumMod val="75000"/>
+              <a:alpha val="25000"/>
+            </a:schemeClr>
+          </a:glow>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>144780</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>403860</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="48" name="Straight Arrow Connector 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F76E8650-8C6A-4310-9FCE-6F7D0B31FABB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1363980" y="3055620"/>
+          <a:ext cx="868680" cy="327660"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="53975" cap="sq" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="accent3">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+          <a:headEnd type="none"/>
+          <a:tailEnd type="stealth"/>
+        </a:ln>
+        <a:effectLst>
+          <a:glow rad="50800">
+            <a:schemeClr val="accent3">
+              <a:lumMod val="75000"/>
+              <a:alpha val="25000"/>
+            </a:schemeClr>
+          </a:glow>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>160020</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>403860</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="49" name="Straight Arrow Connector 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D382F36-49EE-40C5-9754-28AD5FA76063}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1379220" y="3787140"/>
+          <a:ext cx="853440" cy="30480"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="53975" cap="sq" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="accent3">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+          <a:headEnd type="none"/>
+          <a:tailEnd type="stealth"/>
+        </a:ln>
+        <a:effectLst>
+          <a:glow rad="50800">
+            <a:schemeClr val="accent3">
+              <a:lumMod val="75000"/>
+              <a:alpha val="25000"/>
+            </a:schemeClr>
+          </a:glow>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>182880</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>411480</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="50" name="Straight Arrow Connector 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1CEB9CC8-5758-4892-8F55-13BEB8173530}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1402080" y="4168140"/>
+          <a:ext cx="838200" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="53975" cap="sq" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="accent3">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+          <a:headEnd type="none"/>
+          <a:tailEnd type="stealth"/>
+        </a:ln>
+        <a:effectLst>
+          <a:glow rad="50800">
+            <a:schemeClr val="accent3">
+              <a:lumMod val="75000"/>
+              <a:alpha val="25000"/>
+            </a:schemeClr>
+          </a:glow>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>205740</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>327660</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="58" name="Straight Arrow Connector 57">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CDCA371F-2CDC-474C-B10A-29435D5FB79F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3863340" y="1402080"/>
+          <a:ext cx="731520" cy="7620"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="53975" cap="sq" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:headEnd type="none"/>
+          <a:tailEnd type="stealth"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>236220</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>358140</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="61" name="Straight Arrow Connector 60">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64F8C9A6-1F49-483D-BA0F-4691C7B2196B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3893820" y="3787140"/>
+          <a:ext cx="731520" cy="7620"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="53975" cap="sq" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:headEnd type="none"/>
+          <a:tailEnd type="stealth"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="62" name="Straight Arrow Connector 61">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{913C3BDE-3667-45FA-A886-51D0F53A9955}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6210300" y="1600200"/>
+          <a:ext cx="723900" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="53975" cap="sq" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:headEnd type="none"/>
+          <a:tailEnd type="stealth"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>106680</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>167640</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="63" name="Straight Arrow Connector 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA057C0B-CE44-43B7-8AA6-9BAA13434E92}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6202680" y="3101340"/>
+          <a:ext cx="670560" cy="373380"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="53975" cap="sq" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:headEnd type="none"/>
+          <a:tailEnd type="stealth"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>312420</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="66" name="Straight Arrow Connector 65">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15F368D8-A3D3-4F91-B068-8693DC66FCB2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="11285220" y="693420"/>
+          <a:ext cx="868680" cy="312420"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="53975" cap="sq" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="accent3">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+          <a:headEnd type="none"/>
+          <a:tailEnd type="stealth"/>
+        </a:ln>
+        <a:effectLst>
+          <a:glow rad="50800">
+            <a:schemeClr val="accent3">
+              <a:lumMod val="75000"/>
+              <a:alpha val="25000"/>
+            </a:schemeClr>
+          </a:glow>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>312420</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="67" name="Straight Arrow Connector 66">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6E01B72-49F0-4E26-B1BD-327B9213AA6C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="11285220" y="3124200"/>
+          <a:ext cx="937260" cy="350520"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="53975" cap="sq" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="accent3">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+          <a:headEnd type="none"/>
+          <a:tailEnd type="stealth"/>
+        </a:ln>
+        <a:effectLst>
+          <a:glow rad="50800">
+            <a:schemeClr val="accent3">
+              <a:lumMod val="75000"/>
+              <a:alpha val="25000"/>
+            </a:schemeClr>
+          </a:glow>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>274320</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="68" name="Straight Arrow Connector 67">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81B3BE19-3A00-4FD6-9F52-E77100FE3FB7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11247120" y="4008120"/>
+          <a:ext cx="990600" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="53975" cap="sq" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="accent3">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+          <a:headEnd type="none"/>
+          <a:tailEnd type="stealth"/>
+        </a:ln>
+        <a:effectLst>
+          <a:glow rad="50800">
+            <a:schemeClr val="accent3">
+              <a:lumMod val="75000"/>
+              <a:alpha val="25000"/>
+            </a:schemeClr>
+          </a:glow>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>281940</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="69" name="Straight Arrow Connector 68">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8947C05-23B7-4302-9D1A-AFC1474838F9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11254740" y="1424940"/>
+          <a:ext cx="960120" cy="205740"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="53975" cap="sq" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="accent3">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+          <a:headEnd type="none"/>
+          <a:tailEnd type="stealth"/>
+        </a:ln>
+        <a:effectLst>
+          <a:glow rad="50800">
+            <a:schemeClr val="accent3">
+              <a:lumMod val="75000"/>
+              <a:alpha val="25000"/>
+            </a:schemeClr>
+          </a:glow>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>556260</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="79" name="Straight Arrow Connector 78">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DB80928-2D35-4167-AB6A-60605E0A053A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9105900" y="2750820"/>
+          <a:ext cx="594360" cy="259080"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="53975" cap="sq" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:headEnd type="none"/>
+          <a:tailEnd type="stealth"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>502920</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>426720</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="81" name="Straight Arrow Connector 80">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{249147D9-3FE8-4B19-B9B7-F1E65FF55CC2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="9037320" y="1744980"/>
+          <a:ext cx="533400" cy="358140"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="53975" cap="sq" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:headEnd type="none"/>
+          <a:tailEnd type="stealth"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>320040</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="88" name="TextBox 87">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3674C3DA-1E0B-AEC3-298A-5EFD3463C131}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="68580" y="30480"/>
+          <a:ext cx="1470660" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Cavolini" panose="020B0502040204020203" pitchFamily="66" charset="0"/>
+              <a:ea typeface="ADLaM Display" panose="02010000000000000000" pitchFamily="2" charset="0"/>
+              <a:cs typeface="Cavolini" panose="020B0502040204020203" pitchFamily="66" charset="0"/>
+            </a:rPr>
+            <a:t>Suppliers</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>99060</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="89" name="TextBox 88">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93AC8410-CBBA-41E5-9E4E-41F03B20B94E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2286000" y="426720"/>
+          <a:ext cx="1470660" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Cavolini" panose="020B0502040204020203" pitchFamily="66" charset="0"/>
+              <a:ea typeface="ADLaM Display" panose="02010000000000000000" pitchFamily="2" charset="0"/>
+              <a:cs typeface="Cavolini" panose="020B0502040204020203" pitchFamily="66" charset="0"/>
+            </a:rPr>
+            <a:t>Farm</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>137160</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="90" name="TextBox 89">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7004AFE8-9E20-48AC-9212-ACE86D21ECB5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2324100" y="2773680"/>
+          <a:ext cx="1470660" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Cavolini" panose="020B0502040204020203" pitchFamily="66" charset="0"/>
+              <a:ea typeface="ADLaM Display" panose="02010000000000000000" pitchFamily="2" charset="0"/>
+              <a:cs typeface="Cavolini" panose="020B0502040204020203" pitchFamily="66" charset="0"/>
+            </a:rPr>
+            <a:t>Farm</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>480060</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>121920</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="91" name="TextBox 90">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11373E4F-6BF5-4681-A33A-6B374B827DBF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4747260" y="464820"/>
+          <a:ext cx="1470660" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Cavolini" panose="020B0502040204020203" pitchFamily="66" charset="0"/>
+              <a:ea typeface="ADLaM Display" panose="02010000000000000000" pitchFamily="2" charset="0"/>
+              <a:cs typeface="Cavolini" panose="020B0502040204020203" pitchFamily="66" charset="0"/>
+            </a:rPr>
+            <a:t>Processing</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>541020</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>182880</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="92" name="TextBox 91">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5EFEACDC-48BE-417F-B7AB-8B9E40E591DE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4808220" y="2735580"/>
+          <a:ext cx="1470660" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Cavolini" panose="020B0502040204020203" pitchFamily="66" charset="0"/>
+              <a:ea typeface="ADLaM Display" panose="02010000000000000000" pitchFamily="2" charset="0"/>
+              <a:cs typeface="Cavolini" panose="020B0502040204020203" pitchFamily="66" charset="0"/>
+            </a:rPr>
+            <a:t>Processing</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>464820</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>297180</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="93" name="TextBox 92">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4341478E-1249-43B9-B3FD-0DAC726857DE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7170420" y="1249680"/>
+          <a:ext cx="1661160" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Cavolini" panose="020B0502040204020203" pitchFamily="66" charset="0"/>
+              <a:ea typeface="ADLaM Display" panose="02010000000000000000" pitchFamily="2" charset="0"/>
+              <a:cs typeface="Cavolini" panose="020B0502040204020203" pitchFamily="66" charset="0"/>
+            </a:rPr>
+            <a:t>Manufacturing</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>259080</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>510540</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="94" name="TextBox 93">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ABB6A99A-F5A7-4D1F-875C-B4A10EDA6FFC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9403080" y="266700"/>
+          <a:ext cx="1470660" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Cavolini" panose="020B0502040204020203" pitchFamily="66" charset="0"/>
+              <a:ea typeface="ADLaM Display" panose="02010000000000000000" pitchFamily="2" charset="0"/>
+              <a:cs typeface="Cavolini" panose="020B0502040204020203" pitchFamily="66" charset="0"/>
+            </a:rPr>
+            <a:t>Distributors</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>480060</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>121920</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="95" name="TextBox 94">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE17B739-F6FF-4321-B277-77225CD0D7DB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9624060" y="4488180"/>
+          <a:ext cx="1470660" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Cavolini" panose="020B0502040204020203" pitchFamily="66" charset="0"/>
+              <a:ea typeface="ADLaM Display" panose="02010000000000000000" pitchFamily="2" charset="0"/>
+              <a:cs typeface="Cavolini" panose="020B0502040204020203" pitchFamily="66" charset="0"/>
+            </a:rPr>
+            <a:t>Distributors</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="96" name="TextBox 95">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62A9D84C-BAFF-4EBD-A397-3A276022D988}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12245340" y="15240"/>
+          <a:ext cx="1470660" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Cavolini" panose="020B0502040204020203" pitchFamily="66" charset="0"/>
+              <a:ea typeface="ADLaM Display" panose="02010000000000000000" pitchFamily="2" charset="0"/>
+              <a:cs typeface="Cavolini" panose="020B0502040204020203" pitchFamily="66" charset="0"/>
+            </a:rPr>
+            <a:t>Customers</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>335280</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="97" name="TextBox 96">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28B5C5D4-2AA6-4213-8589-21644BE6BC88}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12275820" y="1021080"/>
+          <a:ext cx="1470660" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Cavolini" panose="020B0502040204020203" pitchFamily="66" charset="0"/>
+              <a:ea typeface="ADLaM Display" panose="02010000000000000000" pitchFamily="2" charset="0"/>
+              <a:cs typeface="Cavolini" panose="020B0502040204020203" pitchFamily="66" charset="0"/>
+            </a:rPr>
+            <a:t>End</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Cavolini" panose="020B0502040204020203" pitchFamily="66" charset="0"/>
+              <a:ea typeface="ADLaM Display" panose="02010000000000000000" pitchFamily="2" charset="0"/>
+              <a:cs typeface="Cavolini" panose="020B0502040204020203" pitchFamily="66" charset="0"/>
+            </a:rPr>
+            <a:t> User</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1400" b="1">
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="Cavolini" panose="020B0502040204020203" pitchFamily="66" charset="0"/>
+            <a:ea typeface="ADLaM Display" panose="02010000000000000000" pitchFamily="2" charset="0"/>
+            <a:cs typeface="Cavolini" panose="020B0502040204020203" pitchFamily="66" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>312420</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="98" name="TextBox 97">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F04CA8C-FEA5-4BDA-912B-AA69C88176AE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12252960" y="2369820"/>
+          <a:ext cx="1470660" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Cavolini" panose="020B0502040204020203" pitchFamily="66" charset="0"/>
+              <a:ea typeface="ADLaM Display" panose="02010000000000000000" pitchFamily="2" charset="0"/>
+              <a:cs typeface="Cavolini" panose="020B0502040204020203" pitchFamily="66" charset="0"/>
+            </a:rPr>
+            <a:t>Clients</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>320040</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="99" name="TextBox 98">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBD0792D-B0DB-4D9C-A5E4-80AF9B131315}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12260580" y="3718560"/>
+          <a:ext cx="1470660" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Cavolini" panose="020B0502040204020203" pitchFamily="66" charset="0"/>
+              <a:ea typeface="ADLaM Display" panose="02010000000000000000" pitchFamily="2" charset="0"/>
+              <a:cs typeface="Cavolini" panose="020B0502040204020203" pitchFamily="66" charset="0"/>
+            </a:rPr>
+            <a:t>Purchaser</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="Flowchart: Connector 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6097981D-0E52-7595-5C2C-AA88C58DCC32}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9448800" y="624840"/>
+          <a:ext cx="1607820" cy="1440180"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartConnector">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx2">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>312420</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>129540</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="Flowchart: Connector 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73EA5E64-9030-4EA8-9112-6E660306CDB2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9456420" y="2956560"/>
+          <a:ext cx="1645920" cy="1455420"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartConnector">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx2">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4574,7 +8099,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CD3A9E4-C2B0-4A70-9543-FBB5ECA418FE}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
@@ -4591,12 +8116,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30C08BDD-49A1-4FA9-A033-CAD79B59AABC}">
-  <dimension ref="A1"/>
+  <dimension ref="O21"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetData>
+    <row r="21" spans="15:15" ht="15" x14ac:dyDescent="0.35">
+      <c r="O21" s="1"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Dairy value stream map.xlsx
+++ b/Dairy value stream map.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RoboCop\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9221DCD4-566E-4AE3-A88D-CAE2159A03DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A436B277-471E-43BF-BC1F-42702C37E577}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{5F8D529A-F651-4D14-980A-41989DEAE541}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{5F8D529A-F651-4D14-980A-41989DEAE541}"/>
   </bookViews>
   <sheets>
     <sheet name="Value Stream" sheetId="1" r:id="rId1"/>
@@ -8099,7 +8099,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CD3A9E4-C2B0-4A70-9543-FBB5ECA418FE}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
@@ -8118,7 +8118,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30C08BDD-49A1-4FA9-A033-CAD79B59AABC}">
   <dimension ref="O21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>

--- a/Dairy value stream map.xlsx
+++ b/Dairy value stream map.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RoboCop\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A436B277-471E-43BF-BC1F-42702C37E577}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B60518B3-7D6C-44F2-8520-A118D71B52F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{5F8D529A-F651-4D14-980A-41989DEAE541}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{5F8D529A-F651-4D14-980A-41989DEAE541}"/>
   </bookViews>
   <sheets>
     <sheet name="Value Stream" sheetId="1" r:id="rId1"/>
@@ -8099,7 +8099,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CD3A9E4-C2B0-4A70-9543-FBB5ECA418FE}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
@@ -8108,6 +8108,7 @@
     <col min="2" max="2" width="10.77734375" customWidth="1"/>
   </cols>
   <sheetData/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Tl/coEYcSZc9a3r1MiFPLY3AmZSf4kNKpbmLZAZdwllctx36dTfVidNwGhGdZLgpKgK381hZ+wHqeEPM1kwZRw==" saltValue="el/czeraxa8LpZQK+aiSzA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -8118,7 +8119,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30C08BDD-49A1-4FA9-A033-CAD79B59AABC}">
   <dimension ref="O21"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
@@ -8128,6 +8129,7 @@
       <c r="O21" s="1"/>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="Hw+yc0H2gyAUieosYAjRXidZzsiCVtLFJm9WraU1Kn6et0Al755HFUZlrfYGmFozuj9L8W1EWokxipzVmMkU+w==" saltValue="z/U61Wz7qgWQBYeMD5peuA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
